--- a/Jupyter/simulationID/cim_0324_0620/data/bldg/after_complex_215_2.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/bldg/after_complex_215_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="19">
   <si>
     <t>index</t>
   </si>
@@ -52,10 +52,25 @@
     <t>status</t>
   </si>
   <si>
-    <t>﻿215_2</t>
+    <t>renewd</t>
+  </si>
+  <si>
+    <t>PlanID</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>﻿215_2n</t>
   </si>
   <si>
     <t>New Building</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>502-0147678</t>
   </si>
 </sst>
 </file>
@@ -413,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +471,17 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -468,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -495,10 +519,19 @@
         <v>1102.296</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>120</v>
@@ -536,10 +569,19 @@
         <v>1102.296</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -550,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>120</v>
@@ -577,10 +619,19 @@
         <v>1102.296</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -591,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>120</v>
@@ -618,10 +669,19 @@
         <v>1102.296</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -632,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>120</v>
@@ -659,10 +719,19 @@
         <v>1102.296</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -673,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>120</v>
@@ -700,10 +769,19 @@
         <v>1102.296</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -714,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>120</v>
@@ -741,10 +819,19 @@
         <v>1102.296</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -755,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>120</v>
@@ -782,10 +869,19 @@
         <v>1102.296</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -796,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>120</v>
@@ -823,10 +919,19 @@
         <v>1102.296</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -837,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>120</v>
@@ -864,10 +969,19 @@
         <v>1102.296</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -878,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -905,10 +1019,19 @@
         <v>1102.296</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -919,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>120</v>
@@ -946,10 +1069,19 @@
         <v>1102.296</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -960,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>120</v>
@@ -987,10 +1119,19 @@
         <v>1102.296</v>
       </c>
       <c r="M14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1001,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>120</v>
@@ -1028,10 +1169,19 @@
         <v>1102.296</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1042,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>120</v>
@@ -1069,10 +1219,19 @@
         <v>1102.296</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1083,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>120</v>
@@ -1110,10 +1269,19 @@
         <v>1102.296</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1124,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>120</v>
@@ -1151,10 +1319,19 @@
         <v>1102.296</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1165,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>120</v>
@@ -1192,10 +1369,19 @@
         <v>1102.296</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1206,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>120</v>
@@ -1233,10 +1419,19 @@
         <v>1102.296</v>
       </c>
       <c r="M20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1247,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>120</v>
@@ -1274,10 +1469,19 @@
         <v>1102.296</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1288,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>120</v>
@@ -1315,10 +1519,19 @@
         <v>1102.296</v>
       </c>
       <c r="M22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1329,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>120</v>
@@ -1356,10 +1569,19 @@
         <v>1102.296</v>
       </c>
       <c r="M23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1370,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>120</v>
@@ -1397,10 +1619,19 @@
         <v>1102.296</v>
       </c>
       <c r="M24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1411,7 +1642,7 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>120</v>
@@ -1438,10 +1669,19 @@
         <v>1102.296</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1452,7 +1692,7 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>120</v>
@@ -1479,10 +1719,19 @@
         <v>1102.296</v>
       </c>
       <c r="M26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1493,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>120</v>
@@ -1520,10 +1769,19 @@
         <v>1102.296</v>
       </c>
       <c r="M27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1534,7 +1792,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>120</v>
@@ -1561,10 +1819,19 @@
         <v>1102.296</v>
       </c>
       <c r="M28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1575,7 +1842,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>120</v>
@@ -1602,10 +1869,19 @@
         <v>1102.296</v>
       </c>
       <c r="M29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1616,7 +1892,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>120</v>
@@ -1643,10 +1919,19 @@
         <v>1102.296</v>
       </c>
       <c r="M30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1657,7 +1942,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>120</v>
@@ -1684,10 +1969,19 @@
         <v>1102.296</v>
       </c>
       <c r="M31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1698,7 +1992,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>120</v>
@@ -1725,10 +2019,19 @@
         <v>1102.296</v>
       </c>
       <c r="M32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1739,7 +2042,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>120</v>
@@ -1766,10 +2069,19 @@
         <v>1102.296</v>
       </c>
       <c r="M33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1780,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>120</v>
@@ -1807,10 +2119,19 @@
         <v>1102.296</v>
       </c>
       <c r="M34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1821,7 +2142,7 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>120</v>
@@ -1848,10 +2169,19 @@
         <v>1102.296</v>
       </c>
       <c r="M35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1862,7 +2192,7 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>120</v>
@@ -1889,10 +2219,19 @@
         <v>1102.296</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1903,7 +2242,7 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>120</v>
@@ -1930,10 +2269,19 @@
         <v>1102.296</v>
       </c>
       <c r="M37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1944,7 +2292,7 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>120</v>
@@ -1971,10 +2319,19 @@
         <v>1102.296</v>
       </c>
       <c r="M38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1985,7 +2342,7 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>120</v>
@@ -2012,10 +2369,19 @@
         <v>1102.296</v>
       </c>
       <c r="M39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N39" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2026,7 +2392,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>120</v>
@@ -2053,10 +2419,19 @@
         <v>1102.296</v>
       </c>
       <c r="M40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2067,7 +2442,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>120</v>
@@ -2094,10 +2469,19 @@
         <v>1102.296</v>
       </c>
       <c r="M41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2108,7 +2492,7 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>120</v>
@@ -2135,10 +2519,19 @@
         <v>1102.296</v>
       </c>
       <c r="M42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2149,7 +2542,7 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>120</v>
@@ -2176,10 +2569,19 @@
         <v>1102.296</v>
       </c>
       <c r="M43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N43" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2190,7 +2592,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>120</v>
@@ -2217,10 +2619,19 @@
         <v>1102.296</v>
       </c>
       <c r="M44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2231,7 +2642,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>120</v>
@@ -2258,10 +2669,19 @@
         <v>1102.296</v>
       </c>
       <c r="M45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N45" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2272,7 +2692,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>120</v>
@@ -2299,10 +2719,19 @@
         <v>1102.296</v>
       </c>
       <c r="M46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N46" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2313,7 +2742,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>120</v>
@@ -2340,10 +2769,19 @@
         <v>1102.296</v>
       </c>
       <c r="M47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2354,7 +2792,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>120</v>
@@ -2381,10 +2819,19 @@
         <v>1102.296</v>
       </c>
       <c r="M48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48" t="s">
+        <v>18</v>
+      </c>
+      <c r="P48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2395,7 +2842,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>120</v>
@@ -2422,10 +2869,19 @@
         <v>1102.296</v>
       </c>
       <c r="M49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N49" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2436,7 +2892,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>120</v>
@@ -2463,10 +2919,19 @@
         <v>1102.296</v>
       </c>
       <c r="M50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2477,7 +2942,7 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>120</v>
@@ -2504,10 +2969,19 @@
         <v>1102.296</v>
       </c>
       <c r="M51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2518,7 +2992,7 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>120</v>
@@ -2545,10 +3019,19 @@
         <v>1102.296</v>
       </c>
       <c r="M52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N52" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2559,7 +3042,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>120</v>
@@ -2586,10 +3069,19 @@
         <v>1102.296</v>
       </c>
       <c r="M53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N53" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2600,7 +3092,7 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>120</v>
@@ -2627,10 +3119,19 @@
         <v>1102.296</v>
       </c>
       <c r="M54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2641,7 +3142,7 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>120</v>
@@ -2668,10 +3169,19 @@
         <v>1102.296</v>
       </c>
       <c r="M55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" t="s">
+        <v>18</v>
+      </c>
+      <c r="P55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2682,7 +3192,7 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>120</v>
@@ -2709,10 +3219,19 @@
         <v>1102.296</v>
       </c>
       <c r="M56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N56" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2723,7 +3242,7 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -2750,10 +3269,19 @@
         <v>1102.296</v>
       </c>
       <c r="M57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N57" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2764,7 +3292,7 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>120</v>
@@ -2791,10 +3319,19 @@
         <v>1102.296</v>
       </c>
       <c r="M58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N58" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" t="s">
+        <v>18</v>
+      </c>
+      <c r="P58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2805,7 +3342,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>120</v>
@@ -2832,10 +3369,19 @@
         <v>1102.296</v>
       </c>
       <c r="M59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N59" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2846,7 +3392,7 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -2873,10 +3419,19 @@
         <v>1102.296</v>
       </c>
       <c r="M60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" t="s">
+        <v>18</v>
+      </c>
+      <c r="P60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2887,7 +3442,7 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -2914,10 +3469,19 @@
         <v>1102.296</v>
       </c>
       <c r="M61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N61" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2928,7 +3492,7 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>120</v>
@@ -2955,10 +3519,19 @@
         <v>1102.296</v>
       </c>
       <c r="M62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N62" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" t="s">
+        <v>18</v>
+      </c>
+      <c r="P62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2969,7 +3542,7 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -2996,10 +3569,19 @@
         <v>1102.296</v>
       </c>
       <c r="M63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N63" t="s">
+        <v>17</v>
+      </c>
+      <c r="O63" t="s">
+        <v>18</v>
+      </c>
+      <c r="P63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3010,7 +3592,7 @@
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>120</v>
@@ -3037,10 +3619,19 @@
         <v>1102.296</v>
       </c>
       <c r="M64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N64" t="s">
+        <v>17</v>
+      </c>
+      <c r="O64" t="s">
+        <v>18</v>
+      </c>
+      <c r="P64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3051,7 +3642,7 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>120</v>
@@ -3078,10 +3669,19 @@
         <v>1102.296</v>
       </c>
       <c r="M65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N65" t="s">
+        <v>17</v>
+      </c>
+      <c r="O65" t="s">
+        <v>18</v>
+      </c>
+      <c r="P65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3092,7 +3692,7 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>120</v>
@@ -3119,10 +3719,19 @@
         <v>1102.296</v>
       </c>
       <c r="M66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O66" t="s">
+        <v>18</v>
+      </c>
+      <c r="P66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3133,7 +3742,7 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>120</v>
@@ -3160,10 +3769,19 @@
         <v>1102.296</v>
       </c>
       <c r="M67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N67" t="s">
+        <v>17</v>
+      </c>
+      <c r="O67" t="s">
+        <v>18</v>
+      </c>
+      <c r="P67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3174,7 +3792,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>120</v>
@@ -3201,10 +3819,19 @@
         <v>1102.296</v>
       </c>
       <c r="M68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N68" t="s">
+        <v>17</v>
+      </c>
+      <c r="O68" t="s">
+        <v>18</v>
+      </c>
+      <c r="P68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3215,7 +3842,7 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>120</v>
@@ -3242,10 +3869,19 @@
         <v>1102.296</v>
       </c>
       <c r="M69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N69" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69" t="s">
+        <v>18</v>
+      </c>
+      <c r="P69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3256,7 +3892,7 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>120</v>
@@ -3283,10 +3919,19 @@
         <v>1102.296</v>
       </c>
       <c r="M70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N70" t="s">
+        <v>17</v>
+      </c>
+      <c r="O70" t="s">
+        <v>18</v>
+      </c>
+      <c r="P70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3297,7 +3942,7 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>120</v>
@@ -3324,10 +3969,19 @@
         <v>1102.296</v>
       </c>
       <c r="M71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N71" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3338,7 +3992,7 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>120</v>
@@ -3365,10 +4019,19 @@
         <v>1102.296</v>
       </c>
       <c r="M72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N72" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" t="s">
+        <v>18</v>
+      </c>
+      <c r="P72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3379,7 +4042,7 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>120</v>
@@ -3406,10 +4069,19 @@
         <v>1102.296</v>
       </c>
       <c r="M73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N73" t="s">
+        <v>17</v>
+      </c>
+      <c r="O73" t="s">
+        <v>18</v>
+      </c>
+      <c r="P73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3420,7 +4092,7 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>120</v>
@@ -3447,10 +4119,19 @@
         <v>1102.296</v>
       </c>
       <c r="M74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N74" t="s">
+        <v>17</v>
+      </c>
+      <c r="O74" t="s">
+        <v>18</v>
+      </c>
+      <c r="P74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3461,7 +4142,7 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>120</v>
@@ -3488,10 +4169,19 @@
         <v>1102.296</v>
       </c>
       <c r="M75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N75" t="s">
+        <v>17</v>
+      </c>
+      <c r="O75" t="s">
+        <v>18</v>
+      </c>
+      <c r="P75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3502,7 +4192,7 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>120</v>
@@ -3529,10 +4219,19 @@
         <v>1102.296</v>
       </c>
       <c r="M76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N76" t="s">
+        <v>17</v>
+      </c>
+      <c r="O76" t="s">
+        <v>18</v>
+      </c>
+      <c r="P76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3543,7 +4242,7 @@
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>120</v>
@@ -3570,10 +4269,19 @@
         <v>1102.296</v>
       </c>
       <c r="M77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N77" t="s">
+        <v>17</v>
+      </c>
+      <c r="O77" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3584,7 +4292,7 @@
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>120</v>
@@ -3611,10 +4319,19 @@
         <v>1102.296</v>
       </c>
       <c r="M78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N78" t="s">
+        <v>17</v>
+      </c>
+      <c r="O78" t="s">
+        <v>18</v>
+      </c>
+      <c r="P78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3625,7 +4342,7 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>120</v>
@@ -3652,10 +4369,19 @@
         <v>1102.296</v>
       </c>
       <c r="M79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N79" t="s">
+        <v>17</v>
+      </c>
+      <c r="O79" t="s">
+        <v>18</v>
+      </c>
+      <c r="P79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3666,7 +4392,7 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>120</v>
@@ -3693,10 +4419,19 @@
         <v>1102.296</v>
       </c>
       <c r="M80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N80" t="s">
+        <v>17</v>
+      </c>
+      <c r="O80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3707,7 +4442,7 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>120</v>
@@ -3734,10 +4469,19 @@
         <v>1102.296</v>
       </c>
       <c r="M81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N81" t="s">
+        <v>17</v>
+      </c>
+      <c r="O81" t="s">
+        <v>18</v>
+      </c>
+      <c r="P81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3748,7 +4492,7 @@
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>120</v>
@@ -3775,10 +4519,19 @@
         <v>1102.296</v>
       </c>
       <c r="M82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N82" t="s">
+        <v>17</v>
+      </c>
+      <c r="O82" t="s">
+        <v>18</v>
+      </c>
+      <c r="P82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3789,7 +4542,7 @@
         <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>120</v>
@@ -3816,10 +4569,19 @@
         <v>1102.296</v>
       </c>
       <c r="M83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N83" t="s">
+        <v>17</v>
+      </c>
+      <c r="O83" t="s">
+        <v>18</v>
+      </c>
+      <c r="P83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3830,7 +4592,7 @@
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E84">
         <v>120</v>
@@ -3857,10 +4619,19 @@
         <v>1102.296</v>
       </c>
       <c r="M84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N84" t="s">
+        <v>17</v>
+      </c>
+      <c r="O84" t="s">
+        <v>18</v>
+      </c>
+      <c r="P84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3871,7 +4642,7 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E85">
         <v>120</v>
@@ -3898,10 +4669,19 @@
         <v>1102.296</v>
       </c>
       <c r="M85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N85" t="s">
+        <v>17</v>
+      </c>
+      <c r="O85" t="s">
+        <v>18</v>
+      </c>
+      <c r="P85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3912,7 +4692,7 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>120</v>
@@ -3939,10 +4719,19 @@
         <v>1102.296</v>
       </c>
       <c r="M86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N86" t="s">
+        <v>17</v>
+      </c>
+      <c r="O86" t="s">
+        <v>18</v>
+      </c>
+      <c r="P86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3953,7 +4742,7 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>120</v>
@@ -3980,10 +4769,19 @@
         <v>1102.296</v>
       </c>
       <c r="M87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N87" t="s">
+        <v>17</v>
+      </c>
+      <c r="O87" t="s">
+        <v>18</v>
+      </c>
+      <c r="P87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3994,7 +4792,7 @@
         <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>120</v>
@@ -4021,10 +4819,19 @@
         <v>1102.296</v>
       </c>
       <c r="M88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N88" t="s">
+        <v>17</v>
+      </c>
+      <c r="O88" t="s">
+        <v>18</v>
+      </c>
+      <c r="P88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4035,7 +4842,7 @@
         <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>120</v>
@@ -4062,10 +4869,19 @@
         <v>1102.296</v>
       </c>
       <c r="M89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N89" t="s">
+        <v>17</v>
+      </c>
+      <c r="O89" t="s">
+        <v>18</v>
+      </c>
+      <c r="P89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4076,7 +4892,7 @@
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>120</v>
@@ -4103,10 +4919,19 @@
         <v>1102.296</v>
       </c>
       <c r="M90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N90" t="s">
+        <v>17</v>
+      </c>
+      <c r="O90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4117,7 +4942,7 @@
         <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>120</v>
@@ -4144,10 +4969,19 @@
         <v>1102.296</v>
       </c>
       <c r="M91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N91" t="s">
+        <v>17</v>
+      </c>
+      <c r="O91" t="s">
+        <v>18</v>
+      </c>
+      <c r="P91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4158,7 +4992,7 @@
         <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>120</v>
@@ -4185,10 +5019,19 @@
         <v>1102.296</v>
       </c>
       <c r="M92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N92" t="s">
+        <v>17</v>
+      </c>
+      <c r="O92" t="s">
+        <v>18</v>
+      </c>
+      <c r="P92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4199,7 +5042,7 @@
         <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>120</v>
@@ -4226,10 +5069,19 @@
         <v>1102.296</v>
       </c>
       <c r="M93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N93" t="s">
+        <v>17</v>
+      </c>
+      <c r="O93" t="s">
+        <v>18</v>
+      </c>
+      <c r="P93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4240,7 +5092,7 @@
         <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>120</v>
@@ -4267,10 +5119,19 @@
         <v>1102.296</v>
       </c>
       <c r="M94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N94" t="s">
+        <v>17</v>
+      </c>
+      <c r="O94" t="s">
+        <v>18</v>
+      </c>
+      <c r="P94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4281,7 +5142,7 @@
         <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>120</v>
@@ -4308,10 +5169,19 @@
         <v>1102.296</v>
       </c>
       <c r="M95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N95" t="s">
+        <v>17</v>
+      </c>
+      <c r="O95" t="s">
+        <v>18</v>
+      </c>
+      <c r="P95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4322,7 +5192,7 @@
         <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>120</v>
@@ -4349,10 +5219,19 @@
         <v>1102.296</v>
       </c>
       <c r="M96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N96" t="s">
+        <v>17</v>
+      </c>
+      <c r="O96" t="s">
+        <v>18</v>
+      </c>
+      <c r="P96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4363,7 +5242,7 @@
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>120</v>
@@ -4390,10 +5269,19 @@
         <v>1102.296</v>
       </c>
       <c r="M97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N97" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97" t="s">
+        <v>18</v>
+      </c>
+      <c r="P97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4404,7 +5292,7 @@
         <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>120</v>
@@ -4431,10 +5319,19 @@
         <v>1102.296</v>
       </c>
       <c r="M98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N98" t="s">
+        <v>17</v>
+      </c>
+      <c r="O98" t="s">
+        <v>18</v>
+      </c>
+      <c r="P98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4445,7 +5342,7 @@
         <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>120</v>
@@ -4472,10 +5369,19 @@
         <v>1102.296</v>
       </c>
       <c r="M99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N99" t="s">
+        <v>17</v>
+      </c>
+      <c r="O99" t="s">
+        <v>18</v>
+      </c>
+      <c r="P99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4486,7 +5392,7 @@
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>120</v>
@@ -4513,10 +5419,19 @@
         <v>1102.296</v>
       </c>
       <c r="M100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N100" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100" t="s">
+        <v>18</v>
+      </c>
+      <c r="P100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4527,7 +5442,7 @@
         <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>120</v>
@@ -4554,10 +5469,19 @@
         <v>1102.296</v>
       </c>
       <c r="M101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N101" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" t="s">
+        <v>18</v>
+      </c>
+      <c r="P101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4568,7 +5492,7 @@
         <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>120</v>
@@ -4595,10 +5519,19 @@
         <v>1102.296</v>
       </c>
       <c r="M102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N102" t="s">
+        <v>17</v>
+      </c>
+      <c r="O102" t="s">
+        <v>18</v>
+      </c>
+      <c r="P102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4609,7 +5542,7 @@
         <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>120</v>
@@ -4636,7 +5569,16 @@
         <v>1102.296</v>
       </c>
       <c r="M103" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="N103" t="s">
+        <v>17</v>
+      </c>
+      <c r="O103" t="s">
+        <v>18</v>
+      </c>
+      <c r="P103">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
